--- a/nr-update-fhir/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
+++ b/nr-update-fhir/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T15:23:33+00:00</t>
+    <t>2026-01-06T16:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-fhir/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
+++ b/nr-update-fhir/ig/StructureDefinition-fr-lm-exposition-radiations.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-06T16:42:33+00:00</t>
+    <t>2026-01-06T17:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
